--- a/medicine/Mort/Liste_des_États_américains_par_nombre_de_meurtres_par_année/Liste_des_États_américains_par_nombre_de_meurtres_par_année.xlsx
+++ b/medicine/Mort/Liste_des_États_américains_par_nombre_de_meurtres_par_année/Liste_des_États_américains_par_nombre_de_meurtres_par_année.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%89tats_am%C3%A9ricains_par_nombre_de_meurtres_par_ann%C3%A9e</t>
+          <t>Liste_des_États_américains_par_nombre_de_meurtres_par_année</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les derniers chiffres concernant le nombre de meurtres perpétrés dans chacun des cinquante États des États-Unis (plus le District de Columbia).
-Les données proviennent du Federal Bureau of Investigation (FBI), et ont été utilisées pour rédiger l'article « Gun crime statistics by US state: latest data »[1] publié sur le site internet du journal britannique The Guardian le 27 septembre 2011.
+Les données proviennent du Federal Bureau of Investigation (FBI), et ont été utilisées pour rédiger l'article « Gun crime statistics by US state: latest data » publié sur le site internet du journal britannique The Guardian le 27 septembre 2011.
 Remarque: La capitale des États-Unis, Washington DC, n'est pas réellement considérée comme un État en tant que tel. Malgré tout, elle est mise dans ce tableau sous terme d'État.
 </t>
         </is>
